--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>785269.2711914665</v>
+        <v>779668.5451098381</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8027377.557092544</v>
+        <v>8027377.557092541</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9100610.429867385</v>
+        <v>9100610.429867387</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7345432.846600189</v>
+        <v>7345432.846600191</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.1205995367464</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>12.00229076078423</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>71.95069904748051</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>14.46957303490711</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>56.16756081698817</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>139.4538104113562</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>74.92558984444302</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>86.57983173682923</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.2790456157205</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>336.748425770774</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1536,16 +1536,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>31.41280884049803</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0605379141605</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>116.3970558369218</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>231.1786025836978</v>
       </c>
       <c r="U13" t="n">
-        <v>271.8844125010834</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.3402355741202</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>25.35996799970812</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>69.93312435321234</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.1475275446664</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>191.8830145006983</v>
       </c>
       <c r="T16" t="n">
-        <v>231.1786025836978</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5565324524787</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>177.1756022640878</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.8199488098693</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>253.1040717011496</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>231.1786025836978</v>
+        <v>80.44478966125787</v>
       </c>
       <c r="U19" t="n">
         <v>282.5565324524787</v>
@@ -2067,10 +2067,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0036321432317</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>139.5449409799537</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.2790456157205</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1040717011496</v>
+        <v>195.8830842281848</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.04087414444143</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0605379141605</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>116.3970558369218</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>231.1786025836978</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>70.14712764908343</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>309.1760832335304</v>
       </c>
       <c r="I23" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.2790456157205</v>
+        <v>144.3796914447772</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.69864604315151</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>48.60546396703531</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0605379141605</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.14712764908332</v>
       </c>
       <c r="I25" t="n">
-        <v>116.3970558369218</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>231.1786025836978</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>407.8919958494052</v>
+        <v>251.5652418124598</v>
       </c>
       <c r="H26" t="n">
-        <v>309.1760832335304</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.2790456157205</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1040717011496</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>13.51348174346855</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>98.23465197265796</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>116.3970558369218</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>231.1786025836978</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>70.14712764908337</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>361.1582914085945</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>407.8919958494052</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.3394364726934</v>
       </c>
       <c r="I29" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.2790456157205</v>
@@ -2851,7 +2851,7 @@
         <v>253.1040717011496</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0605379141605</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>282.5565324524787</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.00570607240708</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.7557384535235</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>57.77218167554795</v>
       </c>
       <c r="C32" t="n">
-        <v>275.5878349935012</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.2790456157205</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.99255875755685</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>231.1786025836978</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>70.14712764908337</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>273.5199436131633</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>407.8919958494052</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>309.1760832335304</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.33890942571767</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.3970558369218</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>231.1786025836978</v>
+        <v>80.44478966125787</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V37" t="n">
-        <v>204.5552753953697</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>281.9511101122914</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>407.8919958494052</v>
       </c>
       <c r="H38" t="n">
-        <v>309.1760832335304</v>
+        <v>240.1704094724342</v>
       </c>
       <c r="I38" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>61.18889336808206</v>
+        <v>166.0605379141605</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I40" t="n">
-        <v>116.3970558369218</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>139.794433232873</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>268.5362139515819</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.8919958494052</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.2790456157205</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>60.38581955622572</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>99.68666526663043</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.1786025836978</v>
+        <v>80.44478966125787</v>
       </c>
       <c r="U43" t="n">
         <v>282.5565324524787</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>204.4476547523039</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.8919958494052</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>48.26626709990108</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>240.6335225744508</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.00570607240674</v>
+        <v>3.06151402138849</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T46" t="n">
         <v>231.1786025836978</v>
@@ -4194,7 +4194,7 @@
         <v>282.5565324524787</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.092355893942</v>
+        <v>764.5715220321224</v>
       </c>
       <c r="C2" t="n">
-        <v>845.9168543968727</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D2" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E2" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4336,16 +4336,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
         <v>2180.802944936232</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>1925.517907842175</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>1925.517907842175</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>1554.518872810463</v>
       </c>
       <c r="X2" t="n">
-        <v>1396.789931183585</v>
+        <v>1165.066267743519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1396.789931183585</v>
+        <v>1165.066267743519</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>2021.614212075288</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O3" t="n">
-        <v>2365.64850507718</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P3" t="n">
         <v>2365.64850507718</v>
@@ -4433,19 +4433,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>275.549256027675</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>275.549256027675</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>275.549256027675</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>275.549256027675</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>275.549256027675</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.210445219441</v>
+        <v>1409.187599239891</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0349437223717</v>
+        <v>1016.012097742821</v>
       </c>
       <c r="D5" t="n">
-        <v>449.8964949849991</v>
+        <v>1016.012097742821</v>
       </c>
       <c r="E5" t="n">
-        <v>47.31297010154361</v>
+        <v>613.4285728593657</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>613.4285728593657</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>200.2658173473688</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010237</v>
+        <v>1809.682344951288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930838</v>
+        <v>1809.682344951288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4685,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.488471598613</v>
+        <v>520.9423184877155</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>520.9423184877155</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>520.9423184877155</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>520.9423184877155</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>104.0478800176933</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4804,52 +4804,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.926531456352</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.473926389409</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.9832173100099</v>
+        <v>921.4370641991123</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637708</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637708</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703729</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1538.048126176975</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4989,25 +4989,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>256.0898094487516</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.513125265401</v>
+        <v>954.2453089467681</v>
       </c>
       <c r="C11" t="n">
-        <v>835.3376237683314</v>
+        <v>954.2453089467681</v>
       </c>
       <c r="D11" t="n">
-        <v>449.8964949849991</v>
+        <v>954.2453089467681</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>551.6617840633126</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>134.7673455932903</v>
       </c>
       <c r="G11" t="n">
         <v>47.31297010154361</v>
@@ -5041,25 +5041,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>287.6783325798264</v>
       </c>
       <c r="K11" t="n">
-        <v>549.7481831866412</v>
+        <v>790.113545664924</v>
       </c>
       <c r="L11" t="n">
-        <v>1135.246188193243</v>
+        <v>816.3638117810674</v>
       </c>
       <c r="M11" t="n">
-        <v>1720.744193199846</v>
+        <v>866.1574250587336</v>
       </c>
       <c r="N11" t="n">
-        <v>2306.242198206448</v>
+        <v>963.1635951912301</v>
       </c>
       <c r="O11" t="n">
-        <v>2352.276403085838</v>
+        <v>1548.661600197832</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2059.019627089212</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5068,25 +5068,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2225.355124663695</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2006.891442223574</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.498580056196</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="Y11" t="n">
-        <v>1629.007870976798</v>
+        <v>1354.740054658165</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K12" t="n">
-        <v>464.4870981687491</v>
+        <v>193.5121430552875</v>
       </c>
       <c r="L12" t="n">
-        <v>1049.985103175351</v>
+        <v>235.3657571962452</v>
       </c>
       <c r="M12" t="n">
-        <v>1599.071931515979</v>
+        <v>296.7889151032723</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.486396837731</v>
+        <v>882.2869201098745</v>
       </c>
       <c r="O12" t="n">
-        <v>2256.984401844333</v>
+        <v>1467.784925116477</v>
       </c>
       <c r="P12" t="n">
-        <v>2285.993758565565</v>
+        <v>1988.628181725227</v>
       </c>
       <c r="Q12" t="n">
-        <v>2285.993758565565</v>
+        <v>2300.016053959503</v>
       </c>
       <c r="R12" t="n">
         <v>2300.016053959503</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.0311564185567</v>
+        <v>352.2489768125842</v>
       </c>
       <c r="C13" t="n">
-        <v>952.0311564185567</v>
+        <v>352.2489768125842</v>
       </c>
       <c r="D13" t="n">
-        <v>796.3980433210716</v>
+        <v>196.615863715099</v>
       </c>
       <c r="E13" t="n">
-        <v>640.8392311802741</v>
+        <v>196.615863715099</v>
       </c>
       <c r="F13" t="n">
-        <v>483.513296393247</v>
+        <v>164.8857537752019</v>
       </c>
       <c r="G13" t="n">
-        <v>315.7753793082364</v>
+        <v>164.8857537752019</v>
       </c>
       <c r="H13" t="n">
         <v>164.8857537752019</v>
@@ -5226,25 +5226,25 @@
         <v>1420.483102885003</v>
       </c>
       <c r="S13" t="n">
-        <v>1226.661876116621</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="T13" t="n">
-        <v>1226.661876116621</v>
+        <v>1186.96936290147</v>
       </c>
       <c r="U13" t="n">
-        <v>952.0311564185567</v>
+        <v>901.5587240605823</v>
       </c>
       <c r="V13" t="n">
-        <v>952.0311564185567</v>
+        <v>635.5793788814066</v>
       </c>
       <c r="W13" t="n">
-        <v>952.0311564185567</v>
+        <v>352.2489768125842</v>
       </c>
       <c r="X13" t="n">
-        <v>952.0311564185567</v>
+        <v>352.2489768125842</v>
       </c>
       <c r="Y13" t="n">
-        <v>952.0311564185567</v>
+        <v>352.2489768125842</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.488471598613</v>
+        <v>783.2563863199466</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>390.0808848228772</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>390.0808848228772</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>390.0808848228772</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>390.0808848228772</v>
       </c>
       <c r="G14" t="n">
         <v>47.31297010154361</v>
@@ -5278,52 +5278,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>287.6783325798264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>790.113545664924</v>
+        <v>549.7481831866412</v>
       </c>
       <c r="L14" t="n">
-        <v>1174.250735360661</v>
+        <v>826.168088027259</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.748740367263</v>
+        <v>875.9617013049252</v>
       </c>
       <c r="N14" t="n">
-        <v>1813.347041811624</v>
+        <v>929.5600027492853</v>
       </c>
       <c r="O14" t="n">
-        <v>1855.2904781858</v>
+        <v>1515.058007755888</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2025.416034647268</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2332.044912635236</v>
       </c>
       <c r="R14" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2225.355124663695</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2225.355124663695</v>
       </c>
       <c r="U14" t="n">
-        <v>2340.032375784546</v>
+        <v>1969.694446177685</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.925566488064</v>
+        <v>1969.694446177685</v>
       </c>
       <c r="W14" t="n">
-        <v>1626.926531456352</v>
+        <v>1969.694446177685</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.473926389409</v>
+        <v>1580.241841110742</v>
       </c>
       <c r="Y14" t="n">
-        <v>840.9832173100099</v>
+        <v>1183.751132031344</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>56.04698612652263</v>
+        <v>464.4870981687491</v>
       </c>
       <c r="L15" t="n">
-        <v>641.5449911331248</v>
+        <v>1049.985103175351</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.010687225066</v>
+        <v>1329.545942824668</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.508692231668</v>
+        <v>1401.960408146419</v>
       </c>
       <c r="O15" t="n">
-        <v>2271.006697238271</v>
+        <v>1453.762629722539</v>
       </c>
       <c r="P15" t="n">
-        <v>2300.016053959503</v>
+        <v>1974.60588633129</v>
       </c>
       <c r="Q15" t="n">
-        <v>2300.016053959503</v>
+        <v>2285.993758565565</v>
       </c>
       <c r="R15" t="n">
         <v>2300.016053959503</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.9524896502429</v>
+        <v>521.9628963674151</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>521.9628963674151</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>521.9628963674151</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.4040842266176</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>209.0781494395905</v>
       </c>
       <c r="G16" t="n">
         <v>47.31297010154361</v>
@@ -5460,28 +5460,28 @@
         <v>1420.483102885003</v>
       </c>
       <c r="R16" t="n">
-        <v>1319.789501605578</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="S16" t="n">
-        <v>1125.968274837196</v>
+        <v>1226.661876116621</v>
       </c>
       <c r="T16" t="n">
-        <v>892.4545348536629</v>
+        <v>1226.661876116621</v>
       </c>
       <c r="U16" t="n">
-        <v>607.0438960127753</v>
+        <v>941.2512372757333</v>
       </c>
       <c r="V16" t="n">
-        <v>341.0645508335996</v>
+        <v>941.2512372757333</v>
       </c>
       <c r="W16" t="n">
-        <v>341.0645508335996</v>
+        <v>941.2512372757333</v>
       </c>
       <c r="X16" t="n">
-        <v>341.0645508335996</v>
+        <v>707.1709150587163</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.9524896502429</v>
+        <v>707.1709150587163</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>252.1816052630277</v>
+        <v>1572.265508925354</v>
       </c>
       <c r="C17" t="n">
-        <v>252.1816052630277</v>
+        <v>1179.090007428284</v>
       </c>
       <c r="D17" t="n">
-        <v>252.1816052630277</v>
+        <v>1179.090007428284</v>
       </c>
       <c r="E17" t="n">
-        <v>252.1816052630277</v>
+        <v>776.5064825448289</v>
       </c>
       <c r="F17" t="n">
-        <v>252.1816052630277</v>
+        <v>359.6120440748067</v>
       </c>
       <c r="G17" t="n">
-        <v>252.1816052630277</v>
+        <v>359.6120440748067</v>
       </c>
       <c r="H17" t="n">
         <v>47.31297010154361</v>
@@ -5515,28 +5515,28 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>287.6783325798264</v>
       </c>
       <c r="K17" t="n">
-        <v>49.1380080117344</v>
+        <v>790.113545664924</v>
       </c>
       <c r="L17" t="n">
-        <v>634.6360130183366</v>
+        <v>826.168088027259</v>
       </c>
       <c r="M17" t="n">
-        <v>684.4296262960028</v>
+        <v>875.9617013049252</v>
       </c>
       <c r="N17" t="n">
-        <v>1269.927631302605</v>
+        <v>929.5600027492853</v>
       </c>
       <c r="O17" t="n">
-        <v>1548.661600197832</v>
+        <v>1515.058007755888</v>
       </c>
       <c r="P17" t="n">
-        <v>2059.019627089212</v>
+        <v>2025.416034647268</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2332.044912635236</v>
       </c>
       <c r="R17" t="n">
         <v>2365.64850507718</v>
@@ -5551,16 +5551,16 @@
         <v>1751.230763737564</v>
       </c>
       <c r="V17" t="n">
-        <v>1409.123954441082</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="W17" t="n">
-        <v>1038.12491940937</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="X17" t="n">
-        <v>648.6723143424266</v>
+        <v>1751.230763737564</v>
       </c>
       <c r="Y17" t="n">
-        <v>252.1816052630277</v>
+        <v>1751.230763737564</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>217.4355017514053</v>
       </c>
       <c r="K18" t="n">
-        <v>56.04698612652263</v>
+        <v>634.6096298186108</v>
       </c>
       <c r="L18" t="n">
-        <v>641.5449911331248</v>
+        <v>1220.107634825213</v>
       </c>
       <c r="M18" t="n">
-        <v>1227.042996139727</v>
+        <v>1281.53079273224</v>
       </c>
       <c r="N18" t="n">
-        <v>1299.457461461478</v>
+        <v>1353.945258053991</v>
       </c>
       <c r="O18" t="n">
-        <v>1779.172797350752</v>
+        <v>1453.762629722539</v>
       </c>
       <c r="P18" t="n">
-        <v>2300.016053959503</v>
+        <v>1974.60588633129</v>
       </c>
       <c r="Q18" t="n">
-        <v>2300.016053959503</v>
+        <v>2285.993758565565</v>
       </c>
       <c r="R18" t="n">
         <v>2300.016053959503</v>
@@ -5700,22 +5700,22 @@
         <v>1420.483102885003</v>
       </c>
       <c r="S19" t="n">
-        <v>1226.661876116621</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="T19" t="n">
-        <v>993.1481361330876</v>
+        <v>1339.225739590803</v>
       </c>
       <c r="U19" t="n">
-        <v>707.7374972922</v>
+        <v>1053.815100749915</v>
       </c>
       <c r="V19" t="n">
-        <v>441.7581521130243</v>
+        <v>787.8357555707396</v>
       </c>
       <c r="W19" t="n">
-        <v>158.4277500442019</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X19" t="n">
-        <v>158.4277500442019</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
         <v>47.31297010154361</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>581.4429574369501</v>
+        <v>846.7646720013306</v>
       </c>
       <c r="C20" t="n">
-        <v>188.2674559398807</v>
+        <v>453.5891705042612</v>
       </c>
       <c r="D20" t="n">
-        <v>188.2674559398807</v>
+        <v>453.5891705042612</v>
       </c>
       <c r="E20" t="n">
-        <v>188.2674559398807</v>
+        <v>453.5891705042612</v>
       </c>
       <c r="F20" t="n">
-        <v>188.2674559398807</v>
+        <v>453.5891705042612</v>
       </c>
       <c r="G20" t="n">
-        <v>188.2674559398807</v>
+        <v>453.5891705042612</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>141.2900965309981</v>
       </c>
       <c r="I20" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>287.6783325798264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>790.113545664924</v>
+        <v>49.1380080117344</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.611550671526</v>
+        <v>634.6360130183366</v>
       </c>
       <c r="M20" t="n">
-        <v>1961.109555678128</v>
+        <v>1220.134018024939</v>
       </c>
       <c r="N20" t="n">
-        <v>2014.707857122489</v>
+        <v>1805.632023031541</v>
       </c>
       <c r="O20" t="n">
-        <v>2056.651293496665</v>
+        <v>1847.575459405718</v>
       </c>
       <c r="P20" t="n">
         <v>2332.044912635236</v>
@@ -5782,22 +5782,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2147.184822637058</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.987826591171</v>
+        <v>1949.323121396468</v>
       </c>
       <c r="V20" t="n">
-        <v>1767.881017294689</v>
+        <v>1607.216312099986</v>
       </c>
       <c r="W20" t="n">
-        <v>1767.881017294689</v>
+        <v>1236.217277068274</v>
       </c>
       <c r="X20" t="n">
-        <v>1378.428412227746</v>
+        <v>846.7646720013306</v>
       </c>
       <c r="Y20" t="n">
-        <v>981.9377031483471</v>
+        <v>846.7646720013306</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>217.4355017514053</v>
       </c>
       <c r="K21" t="n">
-        <v>464.4870981687491</v>
+        <v>634.6096298186108</v>
       </c>
       <c r="L21" t="n">
-        <v>506.3407123097068</v>
+        <v>1220.107634825213</v>
       </c>
       <c r="M21" t="n">
-        <v>1091.838717316309</v>
+        <v>1805.605639831815</v>
       </c>
       <c r="N21" t="n">
-        <v>1677.336722322911</v>
+        <v>1878.020105153566</v>
       </c>
       <c r="O21" t="n">
-        <v>1729.138943899031</v>
+        <v>1929.822326729686</v>
       </c>
       <c r="P21" t="n">
-        <v>2249.982200507781</v>
+        <v>1974.60588633129</v>
       </c>
       <c r="Q21" t="n">
-        <v>2300.016053959503</v>
+        <v>2285.993758565565</v>
       </c>
       <c r="R21" t="n">
         <v>2300.016053959503</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1662.813597154716</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>1586.004633372452</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>1586.004633372452</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1586.004633372452</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1428.678698585425</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1260.940781500414</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1110.05115596738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>992.4783722937212</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>998.4693341853399</v>
+        <v>53.30393199316232</v>
       </c>
       <c r="K22" t="n">
-        <v>1139.076771253895</v>
+        <v>193.9113690617178</v>
       </c>
       <c r="L22" t="n">
-        <v>1378.412843327004</v>
+        <v>433.2474411348265</v>
       </c>
       <c r="M22" t="n">
-        <v>1644.001168419132</v>
+        <v>698.8357662269541</v>
       </c>
       <c r="N22" t="n">
-        <v>1904.602049803341</v>
+        <v>959.4366476111636</v>
       </c>
       <c r="O22" t="n">
-        <v>2138.808633149003</v>
+        <v>1193.643230956825</v>
       </c>
       <c r="P22" t="n">
-        <v>2319.866955094079</v>
+        <v>1374.701552901901</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="R22" t="n">
-        <v>2264.954903797756</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="S22" t="n">
-        <v>2071.133677029374</v>
+        <v>1420.483102885003</v>
       </c>
       <c r="T22" t="n">
-        <v>2071.133677029374</v>
+        <v>1186.96936290147</v>
       </c>
       <c r="U22" t="n">
-        <v>2071.133677029374</v>
+        <v>901.5587240605823</v>
       </c>
       <c r="V22" t="n">
-        <v>2071.133677029374</v>
+        <v>635.5793788814066</v>
       </c>
       <c r="W22" t="n">
-        <v>2071.133677029374</v>
+        <v>352.2489768125842</v>
       </c>
       <c r="X22" t="n">
-        <v>2071.133677029374</v>
+        <v>118.1686545955673</v>
       </c>
       <c r="Y22" t="n">
-        <v>1848.021615846017</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2505.521436790466</v>
+        <v>2411.544310361011</v>
       </c>
       <c r="C23" t="n">
-        <v>2112.345935293397</v>
+        <v>2018.368808863942</v>
       </c>
       <c r="D23" t="n">
-        <v>1726.904806510064</v>
+        <v>1632.92768008061</v>
       </c>
       <c r="E23" t="n">
-        <v>1324.321281626609</v>
+        <v>1230.344155197154</v>
       </c>
       <c r="F23" t="n">
-        <v>907.4268431565866</v>
+        <v>813.4497167271321</v>
       </c>
       <c r="G23" t="n">
-        <v>495.4147261369853</v>
+        <v>401.4375997075308</v>
       </c>
       <c r="H23" t="n">
-        <v>183.1156521637223</v>
+        <v>89.13852573426773</v>
       </c>
       <c r="I23" t="n">
         <v>89.13852573426773</v>
@@ -6016,25 +6016,25 @@
         <v>4456.926286713387</v>
       </c>
       <c r="S23" t="n">
-        <v>4316.632906299901</v>
+        <v>4456.926286713387</v>
       </c>
       <c r="T23" t="n">
-        <v>4098.16922385978</v>
+        <v>4311.088214546945</v>
       </c>
       <c r="U23" t="n">
-        <v>4098.16922385978</v>
+        <v>4311.088214546945</v>
       </c>
       <c r="V23" t="n">
-        <v>3756.062414563298</v>
+        <v>3968.981405250463</v>
       </c>
       <c r="W23" t="n">
-        <v>3385.063379531586</v>
+        <v>3597.98237021875</v>
       </c>
       <c r="X23" t="n">
-        <v>2995.610774464642</v>
+        <v>3208.529765151807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2906.016182501863</v>
+        <v>2812.039056072408</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>89.13852573426773</v>
       </c>
       <c r="K24" t="n">
-        <v>97.87254175924676</v>
+        <v>506.3126538014732</v>
       </c>
       <c r="L24" t="n">
-        <v>712.4519851868668</v>
+        <v>1120.892097229093</v>
       </c>
       <c r="M24" t="n">
-        <v>1448.319203036939</v>
+        <v>1385.39379385133</v>
       </c>
       <c r="N24" t="n">
-        <v>2261.030031294875</v>
+        <v>1457.808259173081</v>
       </c>
       <c r="O24" t="n">
-        <v>2312.832252870995</v>
+        <v>1509.610480749201</v>
       </c>
       <c r="P24" t="n">
-        <v>2341.841609592227</v>
+        <v>2030.453737357951</v>
       </c>
       <c r="Q24" t="n">
         <v>2341.841609592227</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3745.694335659165</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="C25" t="n">
-        <v>3575.489217725154</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="D25" t="n">
-        <v>3575.489217725154</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="E25" t="n">
-        <v>3526.392789475623</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="F25" t="n">
-        <v>3369.066854688596</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="G25" t="n">
-        <v>3201.328937603586</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="H25" t="n">
-        <v>3201.328937603586</v>
+        <v>89.13852573426773</v>
       </c>
       <c r="I25" t="n">
-        <v>3083.756153929928</v>
+        <v>89.13852573426773</v>
       </c>
       <c r="J25" t="n">
-        <v>3089.747115821546</v>
+        <v>95.12948762588645</v>
       </c>
       <c r="K25" t="n">
-        <v>3230.354552890102</v>
+        <v>235.7369246944419</v>
       </c>
       <c r="L25" t="n">
-        <v>3469.690624963211</v>
+        <v>475.0729967675506</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.278950055338</v>
+        <v>740.6613218596781</v>
       </c>
       <c r="N25" t="n">
-        <v>3995.879831439548</v>
+        <v>1001.262203243888</v>
       </c>
       <c r="O25" t="n">
-        <v>4230.086414785209</v>
+        <v>1235.468786589549</v>
       </c>
       <c r="P25" t="n">
-        <v>4411.144736730284</v>
+        <v>1416.527108534625</v>
       </c>
       <c r="Q25" t="n">
-        <v>4456.926286713387</v>
+        <v>1462.308658517727</v>
       </c>
       <c r="R25" t="n">
-        <v>4456.926286713387</v>
+        <v>1462.308658517727</v>
       </c>
       <c r="S25" t="n">
-        <v>4263.105059945005</v>
+        <v>1462.308658517727</v>
       </c>
       <c r="T25" t="n">
-        <v>4263.105059945005</v>
+        <v>1228.794918534194</v>
       </c>
       <c r="U25" t="n">
-        <v>4263.105059945005</v>
+        <v>943.3842796933063</v>
       </c>
       <c r="V25" t="n">
-        <v>4263.105059945005</v>
+        <v>677.4049345141306</v>
       </c>
       <c r="W25" t="n">
-        <v>3979.774657876182</v>
+        <v>394.0745324453082</v>
       </c>
       <c r="X25" t="n">
-        <v>3745.694335659165</v>
+        <v>159.9942102282913</v>
       </c>
       <c r="Y25" t="n">
-        <v>3745.694335659165</v>
+        <v>159.9942102282913</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1281.156288215973</v>
+        <v>1512.73330203525</v>
       </c>
       <c r="C26" t="n">
-        <v>1281.156288215973</v>
+        <v>1119.55780053818</v>
       </c>
       <c r="D26" t="n">
-        <v>1281.156288215973</v>
+        <v>1119.55780053818</v>
       </c>
       <c r="E26" t="n">
-        <v>1281.156288215973</v>
+        <v>716.9742756547246</v>
       </c>
       <c r="F26" t="n">
-        <v>864.2618497459507</v>
+        <v>300.0798371847023</v>
       </c>
       <c r="G26" t="n">
-        <v>452.2497327263495</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="H26" t="n">
-        <v>139.9506587530864</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I26" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J26" t="n">
-        <v>45.97353232363184</v>
+        <v>286.3388948019146</v>
       </c>
       <c r="K26" t="n">
-        <v>548.4087454087294</v>
+        <v>788.7741078870122</v>
       </c>
       <c r="L26" t="n">
-        <v>1117.331207913673</v>
+        <v>815.0243740031556</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.783750240945</v>
+        <v>864.8179872808217</v>
       </c>
       <c r="N26" t="n">
-        <v>1716.382051685305</v>
+        <v>918.4162887251819</v>
       </c>
       <c r="O26" t="n">
-        <v>2285.304514190249</v>
+        <v>1487.338751230126</v>
       </c>
       <c r="P26" t="n">
-        <v>2298.676616181592</v>
+        <v>1997.696778121506</v>
       </c>
       <c r="Q26" t="n">
         <v>2298.676616181592</v>
@@ -6253,25 +6253,25 @@
         <v>2298.676616181592</v>
       </c>
       <c r="S26" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="T26" t="n">
-        <v>1939.919553327985</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="U26" t="n">
-        <v>1684.258874841975</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="V26" t="n">
-        <v>1670.608893282916</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="W26" t="n">
-        <v>1670.608893282916</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="X26" t="n">
-        <v>1281.156288215973</v>
+        <v>1909.224011114648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.156288215973</v>
+        <v>1512.73330203525</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>817.5814473426317</v>
+        <v>817.5814473426311</v>
       </c>
       <c r="C27" t="n">
-        <v>666.9272169027238</v>
+        <v>666.9272169027233</v>
       </c>
       <c r="D27" t="n">
-        <v>536.8382495242042</v>
+        <v>536.8382495242037</v>
       </c>
       <c r="E27" t="n">
-        <v>400.3917586350919</v>
+        <v>400.3917586350914</v>
       </c>
       <c r="F27" t="n">
-        <v>275.9599525182236</v>
+        <v>275.9599525182232</v>
       </c>
       <c r="G27" t="n">
-        <v>156.5157804589203</v>
+        <v>156.5157804589198</v>
       </c>
       <c r="H27" t="n">
-        <v>74.16420705587416</v>
+        <v>74.16420705587406</v>
       </c>
       <c r="I27" t="n">
         <v>45.97353232363184</v>
@@ -6311,31 +6311,31 @@
         <v>54.70754834861086</v>
       </c>
       <c r="L27" t="n">
-        <v>251.5119997112527</v>
+        <v>623.6300108535548</v>
       </c>
       <c r="M27" t="n">
-        <v>820.4344622161966</v>
+        <v>1192.552473358499</v>
       </c>
       <c r="N27" t="n">
-        <v>1389.356924721141</v>
+        <v>1264.96693868025</v>
       </c>
       <c r="O27" t="n">
-        <v>1958.279387226085</v>
+        <v>1777.83335957284</v>
       </c>
       <c r="P27" t="n">
-        <v>1987.288743947317</v>
+        <v>2298.676616181591</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.676616181592</v>
+        <v>2298.676616181591</v>
       </c>
       <c r="R27" t="n">
-        <v>2298.676616181592</v>
+        <v>2298.676616181591</v>
       </c>
       <c r="S27" t="n">
-        <v>2175.181291074901</v>
+        <v>2175.1812910749</v>
       </c>
       <c r="T27" t="n">
-        <v>2000.678964157392</v>
+        <v>2000.678964157391</v>
       </c>
       <c r="U27" t="n">
         <v>1790.65632385372</v>
@@ -6347,10 +6347,10 @@
         <v>1337.999076358074</v>
       </c>
       <c r="X27" t="n">
-        <v>1148.691998708086</v>
+        <v>1148.691998708085</v>
       </c>
       <c r="Y27" t="n">
-        <v>969.377781783593</v>
+        <v>969.3777817835925</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1312.511306190305</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="C28" t="n">
-        <v>1142.306188256294</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="D28" t="n">
-        <v>1043.079267071791</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="E28" t="n">
-        <v>1043.079267071791</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="F28" t="n">
-        <v>1043.079267071791</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="G28" t="n">
-        <v>1043.079267071791</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="H28" t="n">
-        <v>1043.079267071791</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I28" t="n">
-        <v>925.5064833981327</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="J28" t="n">
-        <v>931.4974452897513</v>
+        <v>51.96449421525055</v>
       </c>
       <c r="K28" t="n">
-        <v>1072.104882358307</v>
+        <v>192.5719312838061</v>
       </c>
       <c r="L28" t="n">
-        <v>1311.440954431416</v>
+        <v>431.9080033569147</v>
       </c>
       <c r="M28" t="n">
-        <v>1577.029279523543</v>
+        <v>697.4963284490423</v>
       </c>
       <c r="N28" t="n">
-        <v>1837.630160907752</v>
+        <v>958.0972098332518</v>
       </c>
       <c r="O28" t="n">
-        <v>2071.836744253414</v>
+        <v>1192.303793178913</v>
       </c>
       <c r="P28" t="n">
-        <v>2252.89506619849</v>
+        <v>1373.362115123989</v>
       </c>
       <c r="Q28" t="n">
-        <v>2298.676616181592</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="R28" t="n">
-        <v>2197.983014902167</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="S28" t="n">
-        <v>2004.161788133785</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="T28" t="n">
-        <v>2004.161788133785</v>
+        <v>1185.629925123558</v>
       </c>
       <c r="U28" t="n">
-        <v>2004.161788133785</v>
+        <v>900.2192862826705</v>
       </c>
       <c r="V28" t="n">
-        <v>2004.161788133785</v>
+        <v>634.2399411034947</v>
       </c>
       <c r="W28" t="n">
-        <v>1720.831386064963</v>
+        <v>350.9095390346724</v>
       </c>
       <c r="X28" t="n">
-        <v>1720.831386064963</v>
+        <v>116.8292168176555</v>
       </c>
       <c r="Y28" t="n">
-        <v>1497.719324881606</v>
+        <v>45.97353232363184</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>916.7691307308639</v>
+        <v>1111.446410927266</v>
       </c>
       <c r="C29" t="n">
-        <v>551.9627757726877</v>
+        <v>1111.446410927266</v>
       </c>
       <c r="D29" t="n">
-        <v>551.9627757726877</v>
+        <v>726.0052821439335</v>
       </c>
       <c r="E29" t="n">
-        <v>551.9627757726877</v>
+        <v>726.0052821439335</v>
       </c>
       <c r="F29" t="n">
-        <v>551.9627757726877</v>
+        <v>726.0052821439335</v>
       </c>
       <c r="G29" t="n">
-        <v>139.9506587530864</v>
+        <v>313.9931651243322</v>
       </c>
       <c r="H29" t="n">
-        <v>139.9506587530864</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I29" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J29" t="n">
-        <v>79.84474870490607</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="K29" t="n">
-        <v>582.2799617900037</v>
+        <v>548.4087454087294</v>
       </c>
       <c r="L29" t="n">
-        <v>608.530227906147</v>
+        <v>1117.331207913673</v>
       </c>
       <c r="M29" t="n">
-        <v>1177.452690411091</v>
+        <v>1167.12482119134</v>
       </c>
       <c r="N29" t="n">
-        <v>1746.375152916035</v>
+        <v>1736.047283696284</v>
       </c>
       <c r="O29" t="n">
-        <v>1788.318589290212</v>
+        <v>2285.304514190249</v>
       </c>
       <c r="P29" t="n">
         <v>2298.676616181592</v>
@@ -6490,25 +6490,25 @@
         <v>2298.676616181592</v>
       </c>
       <c r="S29" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="T29" t="n">
-        <v>1939.919553327985</v>
+        <v>2080.21293374147</v>
       </c>
       <c r="U29" t="n">
-        <v>1684.258874841975</v>
+        <v>1824.55225525546</v>
       </c>
       <c r="V29" t="n">
-        <v>1684.258874841975</v>
+        <v>1482.445445958978</v>
       </c>
       <c r="W29" t="n">
-        <v>1313.259839810263</v>
+        <v>1111.446410927266</v>
       </c>
       <c r="X29" t="n">
-        <v>1313.259839810263</v>
+        <v>1111.446410927266</v>
       </c>
       <c r="Y29" t="n">
-        <v>916.7691307308639</v>
+        <v>1111.446410927266</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>45.97353232363184</v>
       </c>
       <c r="J30" t="n">
-        <v>45.97353232363184</v>
+        <v>216.0960639734935</v>
       </c>
       <c r="K30" t="n">
-        <v>54.70754834861086</v>
+        <v>633.2701920406989</v>
       </c>
       <c r="L30" t="n">
-        <v>623.6300108535548</v>
+        <v>1202.192654545643</v>
       </c>
       <c r="M30" t="n">
-        <v>685.0531687605819</v>
+        <v>1263.61581245267</v>
       </c>
       <c r="N30" t="n">
-        <v>1253.975631265526</v>
+        <v>1336.030277774421</v>
       </c>
       <c r="O30" t="n">
-        <v>1822.89809377047</v>
+        <v>1452.423191944627</v>
       </c>
       <c r="P30" t="n">
-        <v>1987.288743947316</v>
+        <v>1973.266448553378</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.676616181591</v>
+        <v>2284.654320787653</v>
       </c>
       <c r="R30" t="n">
         <v>2298.676616181591</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>690.3650050164852</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="C31" t="n">
-        <v>520.1598870824744</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="D31" t="n">
-        <v>520.1598870824744</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="E31" t="n">
-        <v>364.6010749416769</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="F31" t="n">
-        <v>364.6010749416769</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="G31" t="n">
-        <v>196.8631578566663</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="H31" t="n">
         <v>45.97353232363184</v>
@@ -6657,16 +6657,16 @@
         <v>900.2192862826705</v>
       </c>
       <c r="V31" t="n">
-        <v>900.2192862826705</v>
+        <v>634.2399411034947</v>
       </c>
       <c r="W31" t="n">
-        <v>900.2192862826705</v>
+        <v>350.9095390346724</v>
       </c>
       <c r="X31" t="n">
-        <v>900.2192862826705</v>
+        <v>269.0855935069885</v>
       </c>
       <c r="Y31" t="n">
-        <v>690.3650050164852</v>
+        <v>45.97353232363184</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>741.2395212921401</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="C32" t="n">
-        <v>462.8679707936541</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="D32" t="n">
-        <v>462.8679707936541</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="E32" t="n">
         <v>462.8679707936541</v>
@@ -6703,49 +6703,49 @@
         <v>286.3388948019146</v>
       </c>
       <c r="K32" t="n">
-        <v>788.7741078870122</v>
+        <v>288.1639327121054</v>
       </c>
       <c r="L32" t="n">
-        <v>1357.696570391956</v>
+        <v>314.4141988282488</v>
       </c>
       <c r="M32" t="n">
-        <v>1407.490183669622</v>
+        <v>883.3366613331928</v>
       </c>
       <c r="N32" t="n">
-        <v>1936.732199828105</v>
+        <v>936.9349627775529</v>
       </c>
       <c r="O32" t="n">
-        <v>1978.675636202281</v>
+        <v>1505.857425282497</v>
       </c>
       <c r="P32" t="n">
-        <v>1992.047738193624</v>
+        <v>1958.444145751679</v>
       </c>
       <c r="Q32" t="n">
-        <v>2298.676616181592</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="R32" t="n">
         <v>2298.676616181592</v>
       </c>
       <c r="S32" t="n">
-        <v>2298.676616181592</v>
+        <v>2158.383235768107</v>
       </c>
       <c r="T32" t="n">
-        <v>2298.676616181592</v>
+        <v>1939.919553327985</v>
       </c>
       <c r="U32" t="n">
-        <v>2298.676616181592</v>
+        <v>1684.258874841975</v>
       </c>
       <c r="V32" t="n">
-        <v>2298.676616181592</v>
+        <v>1684.258874841975</v>
       </c>
       <c r="W32" t="n">
-        <v>1927.677581149879</v>
+        <v>1313.259839810263</v>
       </c>
       <c r="X32" t="n">
-        <v>1538.224976082936</v>
+        <v>923.8072347433196</v>
       </c>
       <c r="Y32" t="n">
-        <v>1141.734267003537</v>
+        <v>923.8072347433196</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>224.8300799984725</v>
       </c>
       <c r="L33" t="n">
-        <v>266.6836941394303</v>
+        <v>763.6854016048425</v>
       </c>
       <c r="M33" t="n">
-        <v>835.6061566443742</v>
+        <v>825.1085595118695</v>
       </c>
       <c r="N33" t="n">
-        <v>1404.528619149318</v>
+        <v>897.5230248336209</v>
       </c>
       <c r="O33" t="n">
-        <v>1777.83335957284</v>
+        <v>1466.445487338565</v>
       </c>
       <c r="P33" t="n">
-        <v>2298.676616181591</v>
+        <v>1987.288743947316</v>
       </c>
       <c r="Q33" t="n">
         <v>2298.676616181591</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>118.6932886443963</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="C34" t="n">
-        <v>118.6932886443963</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="D34" t="n">
-        <v>118.6932886443963</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="E34" t="n">
         <v>45.97353232363184</v>
@@ -6882,28 +6882,28 @@
         <v>1419.143665107091</v>
       </c>
       <c r="R34" t="n">
-        <v>1318.450063827666</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="S34" t="n">
-        <v>1124.628837059284</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="T34" t="n">
-        <v>891.1150970757511</v>
+        <v>1185.629925123558</v>
       </c>
       <c r="U34" t="n">
-        <v>891.1150970757511</v>
+        <v>900.2192862826705</v>
       </c>
       <c r="V34" t="n">
-        <v>625.1357518965754</v>
+        <v>634.2399411034947</v>
       </c>
       <c r="W34" t="n">
-        <v>341.805349827753</v>
+        <v>350.9095390346724</v>
       </c>
       <c r="X34" t="n">
-        <v>341.805349827753</v>
+        <v>116.8292168176555</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6932886443963</v>
+        <v>45.97353232363184</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1683.739813099428</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="C35" t="n">
-        <v>1683.739813099428</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="D35" t="n">
-        <v>1683.739813099428</v>
+        <v>865.4514956771095</v>
       </c>
       <c r="E35" t="n">
-        <v>1281.156288215973</v>
+        <v>462.8679707936541</v>
       </c>
       <c r="F35" t="n">
-        <v>864.2618497459507</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="G35" t="n">
-        <v>452.2497327263495</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="H35" t="n">
-        <v>139.9506587530864</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I35" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J35" t="n">
-        <v>212.8744181216834</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="K35" t="n">
-        <v>214.6994560318742</v>
+        <v>548.4087454087294</v>
       </c>
       <c r="L35" t="n">
-        <v>783.6219185368182</v>
+        <v>574.6590115248728</v>
       </c>
       <c r="M35" t="n">
-        <v>1352.544381041762</v>
+        <v>624.4526248025389</v>
       </c>
       <c r="N35" t="n">
-        <v>1406.142682486122</v>
+        <v>1193.375087307483</v>
       </c>
       <c r="O35" t="n">
-        <v>1448.086118860299</v>
+        <v>1754.714996848267</v>
       </c>
       <c r="P35" t="n">
-        <v>1958.444145751679</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="Q35" t="n">
         <v>2265.073023739647</v>
@@ -6964,25 +6964,25 @@
         <v>2298.676616181592</v>
       </c>
       <c r="S35" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="T35" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="U35" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="V35" t="n">
-        <v>2158.383235768107</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="W35" t="n">
-        <v>2158.383235768107</v>
+        <v>1927.677581149879</v>
       </c>
       <c r="X35" t="n">
-        <v>1768.930630701163</v>
+        <v>1538.224976082936</v>
       </c>
       <c r="Y35" t="n">
-        <v>1683.739813099428</v>
+        <v>1141.734267003537</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>216.0960639734935</v>
       </c>
       <c r="K36" t="n">
-        <v>224.8300799984725</v>
+        <v>633.2701920406989</v>
       </c>
       <c r="L36" t="n">
-        <v>793.7525425034165</v>
+        <v>1202.192654545643</v>
       </c>
       <c r="M36" t="n">
-        <v>855.1757004104436</v>
+        <v>1342.228800440694</v>
       </c>
       <c r="N36" t="n">
-        <v>1424.098162915388</v>
+        <v>1414.643265762445</v>
       </c>
       <c r="O36" t="n">
-        <v>1993.020625420331</v>
+        <v>1466.445487338565</v>
       </c>
       <c r="P36" t="n">
-        <v>2298.676616181591</v>
+        <v>1987.288743947316</v>
       </c>
       <c r="Q36" t="n">
         <v>2298.676616181591</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>469.9947536711221</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="C37" t="n">
-        <v>469.9947536711221</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="D37" t="n">
-        <v>469.9947536711221</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="E37" t="n">
-        <v>314.4359415303246</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="F37" t="n">
-        <v>314.4359415303246</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="G37" t="n">
-        <v>314.4359415303246</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="H37" t="n">
-        <v>163.5463159972902</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I37" t="n">
         <v>45.97353232363184</v>
@@ -7119,28 +7119,28 @@
         <v>1419.143665107091</v>
       </c>
       <c r="R37" t="n">
-        <v>1318.450063827666</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="S37" t="n">
-        <v>1318.450063827666</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="T37" t="n">
-        <v>1084.936323844133</v>
+        <v>1337.886301812891</v>
       </c>
       <c r="U37" t="n">
-        <v>1084.936323844133</v>
+        <v>1052.475662972004</v>
       </c>
       <c r="V37" t="n">
-        <v>878.3148335457801</v>
+        <v>786.4963177928278</v>
       </c>
       <c r="W37" t="n">
-        <v>878.3148335457801</v>
+        <v>503.1659157240053</v>
       </c>
       <c r="X37" t="n">
-        <v>878.3148335457801</v>
+        <v>269.0855935069885</v>
       </c>
       <c r="Y37" t="n">
-        <v>655.2027723624234</v>
+        <v>45.97353232363184</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1927.677581149879</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="C38" t="n">
-        <v>1534.50207965281</v>
+        <v>1905.501114684522</v>
       </c>
       <c r="D38" t="n">
-        <v>1149.060950869477</v>
+        <v>1520.05998590119</v>
       </c>
       <c r="E38" t="n">
-        <v>1149.060950869477</v>
+        <v>1117.476461017734</v>
       </c>
       <c r="F38" t="n">
-        <v>864.2618497459507</v>
+        <v>700.5820225477122</v>
       </c>
       <c r="G38" t="n">
-        <v>452.2497327263495</v>
+        <v>288.5699055281109</v>
       </c>
       <c r="H38" t="n">
-        <v>139.9506587530864</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I38" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3388948019146</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="K38" t="n">
-        <v>288.1639327121054</v>
+        <v>548.4087454087294</v>
       </c>
       <c r="L38" t="n">
-        <v>857.0863952170494</v>
+        <v>775.7717416333287</v>
       </c>
       <c r="M38" t="n">
-        <v>1426.008857721993</v>
+        <v>825.5653549109949</v>
       </c>
       <c r="N38" t="n">
-        <v>1746.375152916035</v>
+        <v>879.163656355355</v>
       </c>
       <c r="O38" t="n">
-        <v>1788.318589290212</v>
+        <v>1448.086118860299</v>
       </c>
       <c r="P38" t="n">
-        <v>2298.676616181592</v>
+        <v>1958.444145751679</v>
       </c>
       <c r="Q38" t="n">
-        <v>2298.676616181592</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="R38" t="n">
         <v>2298.676616181592</v>
@@ -7213,13 +7213,13 @@
         <v>2298.676616181592</v>
       </c>
       <c r="W38" t="n">
-        <v>1927.677581149879</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="X38" t="n">
-        <v>1927.677581149879</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="Y38" t="n">
-        <v>1927.677581149879</v>
+        <v>2298.676616181592</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>463.1476603908373</v>
       </c>
       <c r="L39" t="n">
-        <v>505.001274531795</v>
+        <v>1032.070122895781</v>
       </c>
       <c r="M39" t="n">
-        <v>1073.923737036739</v>
+        <v>1136.496431746145</v>
       </c>
       <c r="N39" t="n">
-        <v>1642.846199541683</v>
+        <v>1208.910897067896</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.768662046627</v>
+        <v>1777.83335957284</v>
       </c>
       <c r="P39" t="n">
-        <v>2240.778018767859</v>
+        <v>2298.676616181591</v>
       </c>
       <c r="Q39" t="n">
         <v>2298.676616181591</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>225.3532789953529</v>
+        <v>534.8061928756877</v>
       </c>
       <c r="C40" t="n">
-        <v>225.3532789953529</v>
+        <v>364.6010749416769</v>
       </c>
       <c r="D40" t="n">
-        <v>225.3532789953529</v>
+        <v>364.6010749416769</v>
       </c>
       <c r="E40" t="n">
-        <v>225.3532789953529</v>
+        <v>364.6010749416769</v>
       </c>
       <c r="F40" t="n">
-        <v>225.3532789953529</v>
+        <v>364.6010749416769</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5463159972902</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="H40" t="n">
-        <v>163.5463159972902</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I40" t="n">
         <v>45.97353232363184</v>
@@ -7359,25 +7359,25 @@
         <v>1419.143665107091</v>
       </c>
       <c r="S40" t="n">
-        <v>1419.143665107091</v>
+        <v>1225.322438338709</v>
       </c>
       <c r="T40" t="n">
-        <v>1419.143665107091</v>
+        <v>1225.322438338709</v>
       </c>
       <c r="U40" t="n">
-        <v>1133.733026266204</v>
+        <v>1225.322438338709</v>
       </c>
       <c r="V40" t="n">
-        <v>867.7536810870278</v>
+        <v>959.3430931595332</v>
       </c>
       <c r="W40" t="n">
-        <v>867.7536810870278</v>
+        <v>676.0126910907109</v>
       </c>
       <c r="X40" t="n">
-        <v>633.6733588700108</v>
+        <v>534.8061928756877</v>
       </c>
       <c r="Y40" t="n">
-        <v>410.5612976866541</v>
+        <v>534.8061928756877</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1241.484601074056</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="C41" t="n">
-        <v>848.3090995769863</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="D41" t="n">
-        <v>462.8679707936541</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="E41" t="n">
-        <v>462.8679707936541</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="F41" t="n">
-        <v>45.97353232363184</v>
+        <v>864.2618497459507</v>
       </c>
       <c r="G41" t="n">
-        <v>45.97353232363184</v>
+        <v>452.2497327263495</v>
       </c>
       <c r="H41" t="n">
-        <v>45.97353232363184</v>
+        <v>139.9506587530864</v>
       </c>
       <c r="I41" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3388948019146</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="K41" t="n">
-        <v>764.7868317985839</v>
+        <v>495.1399209558065</v>
       </c>
       <c r="L41" t="n">
-        <v>791.0370979147273</v>
+        <v>1064.06238346075</v>
       </c>
       <c r="M41" t="n">
-        <v>840.8307111923934</v>
+        <v>1113.855996738417</v>
       </c>
       <c r="N41" t="n">
-        <v>1409.753173697337</v>
+        <v>1682.778459243361</v>
       </c>
       <c r="O41" t="n">
-        <v>1978.675636202281</v>
+        <v>2251.700921748305</v>
       </c>
       <c r="P41" t="n">
-        <v>1992.047738193624</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="Q41" t="n">
-        <v>2298.676616181592</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="R41" t="n">
         <v>2298.676616181592</v>
       </c>
       <c r="S41" t="n">
-        <v>2298.676616181592</v>
+        <v>2158.383235768107</v>
       </c>
       <c r="T41" t="n">
-        <v>2298.676616181592</v>
+        <v>1939.919553327985</v>
       </c>
       <c r="U41" t="n">
-        <v>2298.676616181592</v>
+        <v>1684.258874841975</v>
       </c>
       <c r="V41" t="n">
-        <v>2298.676616181592</v>
+        <v>1342.152065545494</v>
       </c>
       <c r="W41" t="n">
-        <v>2298.676616181592</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="X41" t="n">
-        <v>1909.224011114648</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="Y41" t="n">
-        <v>1512.73330203525</v>
+        <v>1281.156288215973</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>45.97353232363184</v>
       </c>
       <c r="J42" t="n">
-        <v>216.0960639734935</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="K42" t="n">
-        <v>633.2701920406989</v>
+        <v>54.70754834861086</v>
       </c>
       <c r="L42" t="n">
-        <v>1202.192654545643</v>
+        <v>567.5739692412017</v>
       </c>
       <c r="M42" t="n">
-        <v>1771.115117050587</v>
+        <v>1136.496431746146</v>
       </c>
       <c r="N42" t="n">
-        <v>1906.477165649964</v>
+        <v>1208.910897067897</v>
       </c>
       <c r="O42" t="n">
-        <v>1958.279387226084</v>
+        <v>1777.833359572841</v>
       </c>
       <c r="P42" t="n">
-        <v>1987.288743947316</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.676616181591</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="R42" t="n">
         <v>2298.676616181591</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>358.9325802081441</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="C43" t="n">
-        <v>358.9325802081441</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="D43" t="n">
-        <v>203.2994671106589</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="E43" t="n">
-        <v>203.2994671106589</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="F43" t="n">
         <v>45.97353232363184</v>
@@ -7593,28 +7593,28 @@
         <v>1419.143665107091</v>
       </c>
       <c r="R43" t="n">
-        <v>1318.450063827666</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="S43" t="n">
-        <v>1318.450063827666</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="T43" t="n">
-        <v>1084.936323844133</v>
+        <v>1337.886301812891</v>
       </c>
       <c r="U43" t="n">
-        <v>799.5256850032458</v>
+        <v>1052.475662972004</v>
       </c>
       <c r="V43" t="n">
-        <v>799.5256850032458</v>
+        <v>786.4963177928278</v>
       </c>
       <c r="W43" t="n">
-        <v>799.5256850032458</v>
+        <v>503.1659157240053</v>
       </c>
       <c r="X43" t="n">
-        <v>565.4453627862289</v>
+        <v>269.0855935069885</v>
       </c>
       <c r="Y43" t="n">
-        <v>358.9325802081441</v>
+        <v>45.97353232363184</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1258.626997174179</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="C44" t="n">
-        <v>865.4514956771095</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="D44" t="n">
-        <v>865.4514956771095</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="E44" t="n">
-        <v>462.8679707936541</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="F44" t="n">
-        <v>45.97353232363184</v>
+        <v>864.2618497459507</v>
       </c>
       <c r="G44" t="n">
-        <v>45.97353232363184</v>
+        <v>452.2497327263495</v>
       </c>
       <c r="H44" t="n">
-        <v>45.97353232363184</v>
+        <v>139.9506587530864</v>
       </c>
       <c r="I44" t="n">
         <v>45.97353232363184</v>
       </c>
       <c r="J44" t="n">
-        <v>45.97353232363184</v>
+        <v>286.3388948019146</v>
       </c>
       <c r="K44" t="n">
-        <v>47.79857023382263</v>
+        <v>288.1639327121054</v>
       </c>
       <c r="L44" t="n">
-        <v>616.7210327387666</v>
+        <v>857.0863952170494</v>
       </c>
       <c r="M44" t="n">
-        <v>1147.459589180361</v>
+        <v>1352.544381041762</v>
       </c>
       <c r="N44" t="n">
-        <v>1716.382051685305</v>
+        <v>1406.142682486122</v>
       </c>
       <c r="O44" t="n">
-        <v>2285.304514190249</v>
+        <v>1448.086118860299</v>
       </c>
       <c r="P44" t="n">
-        <v>2298.676616181592</v>
+        <v>1958.444145751679</v>
       </c>
       <c r="Q44" t="n">
-        <v>2298.676616181592</v>
+        <v>2265.073023739647</v>
       </c>
       <c r="R44" t="n">
         <v>2298.676616181592</v>
       </c>
       <c r="S44" t="n">
-        <v>2298.676616181592</v>
+        <v>2249.922811030176</v>
       </c>
       <c r="T44" t="n">
-        <v>2298.676616181592</v>
+        <v>2249.922811030176</v>
       </c>
       <c r="U44" t="n">
-        <v>2298.676616181592</v>
+        <v>1994.262132544167</v>
       </c>
       <c r="V44" t="n">
-        <v>2298.676616181592</v>
+        <v>1652.155323247685</v>
       </c>
       <c r="W44" t="n">
-        <v>2298.676616181592</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.612451964975</v>
+        <v>1281.156288215973</v>
       </c>
       <c r="Y44" t="n">
-        <v>1659.121742885576</v>
+        <v>1281.156288215973</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.5814473426311</v>
+        <v>817.5814473426317</v>
       </c>
       <c r="C45" t="n">
-        <v>666.9272169027233</v>
+        <v>666.9272169027238</v>
       </c>
       <c r="D45" t="n">
-        <v>536.8382495242037</v>
+        <v>536.8382495242042</v>
       </c>
       <c r="E45" t="n">
-        <v>400.3917586350914</v>
+        <v>400.3917586350919</v>
       </c>
       <c r="F45" t="n">
-        <v>275.9599525182232</v>
+        <v>275.9599525182236</v>
       </c>
       <c r="G45" t="n">
-        <v>156.5157804589198</v>
+        <v>156.5157804589203</v>
       </c>
       <c r="H45" t="n">
-        <v>74.16420705587406</v>
+        <v>74.16420705587416</v>
       </c>
       <c r="I45" t="n">
         <v>45.97353232363184</v>
@@ -7736,28 +7736,28 @@
         <v>1202.192654545643</v>
       </c>
       <c r="M45" t="n">
-        <v>1328.206505046756</v>
+        <v>1263.61581245267</v>
       </c>
       <c r="N45" t="n">
-        <v>1400.620970368507</v>
+        <v>1336.030277774421</v>
       </c>
       <c r="O45" t="n">
-        <v>1452.423191944627</v>
+        <v>1452.423191944628</v>
       </c>
       <c r="P45" t="n">
-        <v>1973.266448553378</v>
+        <v>1973.266448553379</v>
       </c>
       <c r="Q45" t="n">
-        <v>2284.654320787653</v>
+        <v>2284.654320787654</v>
       </c>
       <c r="R45" t="n">
-        <v>2298.676616181591</v>
+        <v>2298.676616181592</v>
       </c>
       <c r="S45" t="n">
-        <v>2175.1812910749</v>
+        <v>2175.181291074901</v>
       </c>
       <c r="T45" t="n">
-        <v>2000.678964157391</v>
+        <v>2000.678964157392</v>
       </c>
       <c r="U45" t="n">
         <v>1790.65632385372</v>
@@ -7769,10 +7769,10 @@
         <v>1337.999076358074</v>
       </c>
       <c r="X45" t="n">
-        <v>1148.691998708085</v>
+        <v>1148.691998708086</v>
       </c>
       <c r="Y45" t="n">
-        <v>969.3777817835925</v>
+        <v>969.377781783593</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="C46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="D46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="E46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="F46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="G46" t="n">
-        <v>925.5064833981327</v>
+        <v>196.8631578566663</v>
       </c>
       <c r="H46" t="n">
-        <v>925.5064833981327</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="I46" t="n">
-        <v>925.5064833981327</v>
+        <v>45.97353232363184</v>
       </c>
       <c r="J46" t="n">
-        <v>931.4974452897513</v>
+        <v>51.96449421525055</v>
       </c>
       <c r="K46" t="n">
-        <v>1072.104882358307</v>
+        <v>192.5719312838061</v>
       </c>
       <c r="L46" t="n">
-        <v>1311.440954431416</v>
+        <v>431.9080033569147</v>
       </c>
       <c r="M46" t="n">
-        <v>1577.029279523543</v>
+        <v>697.4963284490423</v>
       </c>
       <c r="N46" t="n">
-        <v>1837.630160907752</v>
+        <v>958.0972098332518</v>
       </c>
       <c r="O46" t="n">
-        <v>2071.836744253414</v>
+        <v>1192.303793178913</v>
       </c>
       <c r="P46" t="n">
-        <v>2252.89506619849</v>
+        <v>1373.362115123989</v>
       </c>
       <c r="Q46" t="n">
-        <v>2298.676616181592</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="R46" t="n">
-        <v>2298.676616181592</v>
+        <v>1419.143665107091</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.676616181592</v>
+        <v>1225.322438338709</v>
       </c>
       <c r="T46" t="n">
-        <v>2065.162876198059</v>
+        <v>991.8086983551758</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.752237357171</v>
+        <v>706.3980595142882</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.772892177995</v>
+        <v>706.3980595142882</v>
       </c>
       <c r="W46" t="n">
-        <v>1230.442490109173</v>
+        <v>423.0676574454658</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.442490109173</v>
+        <v>423.0676574454658</v>
       </c>
       <c r="Y46" t="n">
-        <v>1007.330428925816</v>
+        <v>199.9555962621092</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8072,10 +8072,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>440.1969457594874</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8230,7 +8230,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8461,10 +8461,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>282.2547480662842</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,13 +8531,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8546,10 +8546,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>518.9289833169776</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20.99742423582626</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>564.8967059499583</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>541.1155472009453</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>537.2724278406484</v>
+        <v>43.84633200821858</v>
       </c>
       <c r="O11" t="n">
-        <v>4.132089399205356</v>
+        <v>549.0450188206318</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.48524604766574</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>68.57459233322142</v>
@@ -8771,28 +8771,28 @@
         <v>24.86107407057145</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>138.8536938674392</v>
       </c>
       <c r="L12" t="n">
-        <v>549.1357483491357</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>492.5895660945465</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>518.2662017018695</v>
       </c>
       <c r="O12" t="n">
         <v>539.0866499297803</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>56.84987016430892</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>361.5019430096906</v>
+        <v>252.6966047721964</v>
       </c>
       <c r="M14" t="n">
-        <v>541.1155472009453</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>549.0450188206318</v>
       </c>
       <c r="P14" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.48524604766574</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>24.86107407057145</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>549.1357483491357</v>
       </c>
       <c r="M15" t="n">
-        <v>401.0530688736509</v>
+        <v>220.3410926689794</v>
       </c>
       <c r="N15" t="n">
-        <v>518.2662017018695</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>539.0866499297803</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>56.84987016430892</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>20.99742423582626</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>564.8967059499583</v>
+        <v>9.90330933958753</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>537.2724278406484</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>239.1823560818695</v>
+        <v>549.0450188206318</v>
       </c>
       <c r="P17" t="n">
         <v>502.0059847475129</v>
@@ -9187,7 +9187,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>24.86107407057145</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>549.1357483491357</v>
       </c>
       <c r="M18" t="n">
-        <v>529.3685324238131</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>432.2354690031858</v>
+        <v>48.50015160851282</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>56.84987016430892</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>564.8967059499583</v>
@@ -9412,13 +9412,13 @@
         <v>541.1155472009453</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>537.2724278406484</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>264.6681991386137</v>
+        <v>475.8559103415914</v>
       </c>
       <c r="Q20" t="n">
         <v>21.48524604766574</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>24.86107407057145</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>549.1357483491357</v>
       </c>
       <c r="M21" t="n">
         <v>529.3685324238131</v>
       </c>
       <c r="N21" t="n">
-        <v>518.2662017018695</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>15.93353826300171</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.72661050170851</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>56.84987016430892</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>24.86107407057145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>681.2566262050965</v>
+        <v>205.1298370860702</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>56.84987016430892</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>20.99742423582626</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1537337260612</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>500.6655848985915</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>532.3020465967346</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.48524604766574</v>
+        <v>325.5052844921966</v>
       </c>
       <c r="R26" t="n">
         <v>68.57459233322142</v>
@@ -9959,22 +9959,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>156.5159971936203</v>
+        <v>532.3927761252386</v>
       </c>
       <c r="M27" t="n">
         <v>512.625560199916</v>
       </c>
       <c r="N27" t="n">
-        <v>501.5232294779723</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.3436777058831</v>
+        <v>465.7214134509799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>13.18736459087884</v>
       </c>
       <c r="R27" t="n">
         <v>56.84987016430892</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.21077411590124</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>548.1537337260612</v>
       </c>
       <c r="M29" t="n">
-        <v>524.3725749770482</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>520.5294556167513</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>512.438175878575</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>21.48524604766574</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>24.86107407057145</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>532.3927761252386</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>501.5232294779724</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.3436777058831</v>
+        <v>65.24312383241001</v>
       </c>
       <c r="P30" t="n">
-        <v>136.7487812682969</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>56.84987016430892</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>548.1537337260612</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>524.3725749770482</v>
       </c>
       <c r="N32" t="n">
-        <v>480.4481966809312</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>532.3020465967346</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>443.6511297755956</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,22 +10433,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>502.0219267327395</v>
       </c>
       <c r="M33" t="n">
-        <v>512.625560199916</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>501.5232294779724</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>324.7500190377799</v>
+        <v>522.3436777058831</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>56.84987016430892</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.5841775671915</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>548.1537337260611</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>524.3725749770482</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>520.5294556167513</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>524.6429021884923</v>
       </c>
       <c r="P35" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>21.48524604766574</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>532.3927761252386</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>79.40705857376157</v>
       </c>
       <c r="N36" t="n">
-        <v>501.5232294779724</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.3436777058831</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>279.4410444848761</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.18736459087884</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>56.84987016430892</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>548.1537337260612</v>
+        <v>203.1441718267232</v>
       </c>
       <c r="M38" t="n">
-        <v>524.3725749770482</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>269.4626199491732</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>532.3020465967346</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.48524604766574</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>532.3927761252386</v>
       </c>
       <c r="M39" t="n">
-        <v>512.625560199916</v>
+        <v>43.43752620539033</v>
       </c>
       <c r="N39" t="n">
-        <v>501.5232294779724</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>522.3436777058831</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.67079632192102</v>
+        <v>13.18736459087884</v>
       </c>
       <c r="R39" t="n">
         <v>56.84987016430892</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>20.99742423582626</v>
       </c>
       <c r="K41" t="n">
-        <v>481.4372718045238</v>
+        <v>451.8599502242261</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>548.1537337260611</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>21.48524604766574</v>
       </c>
       <c r="R41" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>24.86107407057145</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>532.3927761252386</v>
+        <v>475.7705118703363</v>
       </c>
       <c r="M42" t="n">
         <v>512.625560199916</v>
       </c>
       <c r="N42" t="n">
-        <v>63.58341745214739</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.3436777058831</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>13.18736459087884</v>
       </c>
       <c r="R42" t="n">
-        <v>56.84987016430892</v>
+        <v>56.84987016430801</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>20.99742423582626</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>548.1537337260612</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8029728928573</v>
+        <v>450.1660328758046</v>
       </c>
       <c r="N44" t="n">
-        <v>520.5294556167513</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>532.3020465967346</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>21.48524604766574</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>68.57459233322142</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,13 +11384,13 @@
         <v>532.3927761252386</v>
       </c>
       <c r="M45" t="n">
-        <v>65.24312383241022</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>65.24312383241093</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240.3691987175365</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -22561,10 +22561,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.1929115089631</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22710,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>82.12608291902988</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -22755,19 +22755,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.80965324550004</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>306.3726468942671</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>74.04686661181526</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -23004,13 +23004,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -23032,10 +23032,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>352.8635671398887</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>227.8352342700392</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23199,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>156.8139291504037</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.8919958494052</v>
+        <v>321.312164112576</v>
       </c>
       <c r="H11" t="n">
         <v>309.1760832335304</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.2790456157205</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1040717011496</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23323,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>48.80965324549976</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.3398665986587</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0605379141605</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>99.68666526663043</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T13" t="n">
-        <v>231.1786025836978</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10.6721199513953</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23509,7 +23509,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.8919958494052</v>
+        <v>68.55176027528506</v>
       </c>
       <c r="H14" t="n">
         <v>309.1760832335304</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.2790456157205</v>
       </c>
       <c r="U14" t="n">
-        <v>227.7441037014415</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.56994240145833</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0605379141605</v>
+        <v>5.913010369494089</v>
       </c>
       <c r="H16" t="n">
         <v>149.3807292777041</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>231.1786025836978</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>219.3141959901951</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>407.8919958494052</v>
       </c>
       <c r="H17" t="n">
-        <v>106.3561344236612</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>93.03735516515999</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23940,10 +23940,10 @@
         <v>99.68666526663043</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>150.7338129224399</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.8773084282914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>407.8919958494052</v>
       </c>
       <c r="H20" t="n">
-        <v>169.6311422535768</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>138.8904466093503</v>
       </c>
       <c r="T20" t="n">
-        <v>216.2790456157205</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>57.22098747296485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>92.46219261022924</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0605379141605</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.3970558369218</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T22" t="n">
-        <v>231.1786025836978</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>150.7338129224397</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>71.89935417094324</v>
       </c>
       <c r="U23" t="n">
         <v>253.1040717011496</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.8271559454533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>105.3977600523542</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0605379141605</v>
       </c>
       <c r="H25" t="n">
-        <v>149.3807292777041</v>
+        <v>79.23360162862078</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.3970558369218</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>99.68666526663043</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T25" t="n">
-        <v>231.1786025836978</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>156.3267540369455</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.2790456157205</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1040717011496</v>
       </c>
       <c r="V26" t="n">
-        <v>325.1722594600482</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>55.84212999385244</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24621,7 +24621,7 @@
         <v>149.3807292777041</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.3970558369218</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T28" t="n">
-        <v>231.1786025836978</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>150.7338129224397</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>28.08545507350419</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>309.1760832335304</v>
+        <v>43.83664676083708</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0605379141605</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I31" t="n">
         <v>116.3970558369218</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>150.7338129224397</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.12520211799958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>338.717616578735</v>
       </c>
       <c r="C32" t="n">
-        <v>113.6559114885975</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.2790456157205</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1040717011496</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>82.01066526183266</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>191.8830145006983</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>150.7338129224397</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>122.9698546411196</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>407.8919958494052</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>309.1760832335304</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>138.8904466093503</v>
       </c>
       <c r="T35" t="n">
         <v>216.2790456157205</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>308.1868925628872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25329,10 +25329,10 @@
         <v>166.0605379141605</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.3807292777041</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.3970558369218</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S37" t="n">
         <v>191.8830145006983</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>150.7338129224399</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5565324524787</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>58.7642763320143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>130.7743839730306</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>69.0056737610962</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>93.03735516515999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25563,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>104.8716445460784</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.3970558369218</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>99.68666526663043</v>
       </c>
       <c r="S40" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>231.1786025836978</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5565324524787</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>91.94508576197376</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>127.953584302701</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.8919958494052</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>309.1760832335304</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>138.8904466093503</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.2790456157205</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1040717011496</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>306.9032251251697</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>166.0605379141605</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>99.68666526663043</v>
       </c>
       <c r="S43" t="n">
         <v>191.8830145006983</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>150.7338129224399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.43328581921918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.8919958494052</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>309.1760832335304</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>93.03735516515999</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>138.8904466093503</v>
+        <v>90.62417950944919</v>
       </c>
       <c r="T44" t="n">
         <v>216.2790456157205</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1040717011496</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>144.9245564418229</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.3502324319815</v>
+        <v>180.2944244829998</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26040,7 +26040,7 @@
         <v>166.0605379141605</v>
       </c>
       <c r="H46" t="n">
-        <v>149.3807292777041</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>116.3970558369218</v>
@@ -26073,7 +26073,7 @@
         <v>99.68666526663043</v>
       </c>
       <c r="S46" t="n">
-        <v>191.8830145006983</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>622183.6429906342</v>
+        <v>622183.6429906341</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>622183.6429906337</v>
+        <v>622183.6429906341</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622183.6429906342</v>
+        <v>622183.6429906341</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623840.5219445493</v>
+        <v>623840.5219445492</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623840.5219445494</v>
+        <v>623840.5219445493</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623840.5219445494</v>
+        <v>623840.5219445492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623840.5219445494</v>
+        <v>623840.5219445493</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>846483.8037336266</v>
+        <v>846483.8037336265</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>616710.507337087</v>
+        <v>616710.5073370871</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>616710.507337087</v>
+        <v>616710.5073370871</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>616710.5073370872</v>
+        <v>616710.5073370871</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>616710.507337087</v>
+        <v>616710.5073370871</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>616710.5073370867</v>
+        <v>616710.5073370866</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>616710.507337087</v>
+        <v>616710.5073370871</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>248445.0440369762</v>
       </c>
       <c r="C2" t="n">
+        <v>248445.0440369763</v>
+      </c>
+      <c r="D2" t="n">
         <v>248445.0440369762</v>
       </c>
-      <c r="D2" t="n">
-        <v>248445.0440369761</v>
-      </c>
       <c r="E2" t="n">
+        <v>261214.7721574134</v>
+      </c>
+      <c r="F2" t="n">
         <v>261214.7721574133</v>
-      </c>
-      <c r="F2" t="n">
-        <v>261214.7721574134</v>
       </c>
       <c r="G2" t="n">
         <v>261214.7721574133</v>
       </c>
       <c r="H2" t="n">
-        <v>261214.7721574132</v>
+        <v>261214.7721574134</v>
       </c>
       <c r="I2" t="n">
-        <v>350042.5404273014</v>
+        <v>350042.5404273015</v>
       </c>
       <c r="J2" t="n">
-        <v>258370.1173345806</v>
+        <v>258370.1173345809</v>
       </c>
       <c r="K2" t="n">
-        <v>258370.1173345806</v>
+        <v>258370.1173345807</v>
       </c>
       <c r="L2" t="n">
+        <v>258370.1173345809</v>
+      </c>
+      <c r="M2" t="n">
         <v>258370.1173345808</v>
       </c>
-      <c r="M2" t="n">
-        <v>258370.1173345806</v>
-      </c>
       <c r="N2" t="n">
-        <v>258370.1173345809</v>
+        <v>258370.1173345808</v>
       </c>
       <c r="O2" t="n">
+        <v>258370.1173345807</v>
+      </c>
+      <c r="P2" t="n">
         <v>258370.1173345808</v>
-      </c>
-      <c r="P2" t="n">
-        <v>258370.1173345807</v>
       </c>
     </row>
     <row r="3">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80583.04943087981</v>
+        <v>80583.04943087979</v>
       </c>
       <c r="C4" t="n">
-        <v>80583.04943087981</v>
+        <v>80583.04943087979</v>
       </c>
       <c r="D4" t="n">
-        <v>80583.04943087981</v>
+        <v>80583.04943087979</v>
       </c>
       <c r="E4" t="n">
-        <v>54391.64057462711</v>
+        <v>54391.64057462712</v>
       </c>
       <c r="F4" t="n">
-        <v>54391.64057462712</v>
+        <v>54391.64057462713</v>
       </c>
       <c r="G4" t="n">
         <v>54391.64057462712</v>
       </c>
       <c r="H4" t="n">
-        <v>54391.64057462711</v>
+        <v>54391.64057462712</v>
       </c>
       <c r="I4" t="n">
-        <v>83476.05886150926</v>
+        <v>83476.05886150924</v>
       </c>
       <c r="J4" t="n">
         <v>53460.22990924057</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99919.26866282173</v>
+        <v>-100593.2947890417</v>
       </c>
       <c r="C6" t="n">
-        <v>98276.53732892327</v>
+        <v>97602.51120270329</v>
       </c>
       <c r="D6" t="n">
-        <v>98276.53732892321</v>
+        <v>97602.51120270323</v>
       </c>
       <c r="E6" t="n">
-        <v>-62963.51477426139</v>
+        <v>-63579.49668175206</v>
       </c>
       <c r="F6" t="n">
-        <v>164688.0456698214</v>
+        <v>164072.0637623305</v>
       </c>
       <c r="G6" t="n">
-        <v>164688.0456698213</v>
+        <v>164072.0637623305</v>
       </c>
       <c r="H6" t="n">
-        <v>164688.0456698212</v>
+        <v>164072.0637623306</v>
       </c>
       <c r="I6" t="n">
-        <v>53615.30362933649</v>
+        <v>53403.08430489084</v>
       </c>
       <c r="J6" t="n">
-        <v>150226.6090571398</v>
+        <v>149597.6969004546</v>
       </c>
       <c r="K6" t="n">
-        <v>163792.7742235881</v>
+        <v>163163.8620669027</v>
       </c>
       <c r="L6" t="n">
-        <v>163792.7742235883</v>
+        <v>163163.8620669029</v>
       </c>
       <c r="M6" t="n">
-        <v>163792.7742235881</v>
+        <v>163163.8620669028</v>
       </c>
       <c r="N6" t="n">
-        <v>163792.7742235883</v>
+        <v>163163.8620669028</v>
       </c>
       <c r="O6" t="n">
-        <v>163792.7742235883</v>
+        <v>163163.8620669027</v>
       </c>
       <c r="P6" t="n">
-        <v>163792.7742235882</v>
+        <v>163163.8620669028</v>
       </c>
     </row>
   </sheetData>
@@ -34704,19 +34704,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34792,10 +34792,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>347.5093868705986</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34950,7 +34950,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N6" t="n">
-        <v>330.4341341043866</v>
-      </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35181,10 +35181,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>133.1362567285001</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35266,10 +35266,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>426.2414244280886</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>242.7932954326088</v>
       </c>
       <c r="K11" t="n">
         <v>507.5103162475733</v>
       </c>
       <c r="L11" t="n">
+        <v>26.51542031933676</v>
+      </c>
+      <c r="M11" t="n">
+        <v>50.2965790683497</v>
+      </c>
+      <c r="N11" t="n">
+        <v>97.98603043686521</v>
+      </c>
+      <c r="O11" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="M11" t="n">
-        <v>591.4121262692951</v>
-      </c>
-      <c r="N11" t="n">
-        <v>591.4121262692951</v>
-      </c>
-      <c r="O11" t="n">
-        <v>46.4991968478687</v>
-      </c>
       <c r="P11" t="n">
-        <v>13.5071737286288</v>
+        <v>515.5131584761417</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>309.7261393817856</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>421.3880081486924</v>
+        <v>147.675932276509</v>
       </c>
       <c r="L12" t="n">
+        <v>42.27637792015933</v>
+      </c>
+      <c r="M12" t="n">
+        <v>62.04359384548191</v>
+      </c>
+      <c r="N12" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="M12" t="n">
-        <v>554.6331599400283</v>
-      </c>
-      <c r="N12" t="n">
-        <v>73.14592456742554</v>
       </c>
       <c r="O12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="P12" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R12" t="n">
-        <v>14.16393474135155</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.7932954326088</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>507.5103162475733</v>
       </c>
       <c r="L14" t="n">
-        <v>388.0173633290274</v>
+        <v>279.2120250915332</v>
       </c>
       <c r="M14" t="n">
-        <v>591.4121262692951</v>
+        <v>50.2965790683497</v>
       </c>
       <c r="N14" t="n">
         <v>54.13969842864662</v>
       </c>
       <c r="O14" t="n">
-        <v>42.36710744866335</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P14" t="n">
         <v>515.5131584761417</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>309.7261393817856</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.822238409069726</v>
+        <v>421.3880081486924</v>
       </c>
       <c r="L15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="M15" t="n">
-        <v>463.0966627191328</v>
+        <v>282.3846865144613</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O15" t="n">
-        <v>591.4121262692951</v>
+        <v>52.32547633951482</v>
       </c>
       <c r="P15" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.16393474135155</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>242.7932954326088</v>
       </c>
       <c r="K17" t="n">
-        <v>1.843472636556356</v>
+        <v>507.5103162475733</v>
       </c>
       <c r="L17" t="n">
-        <v>591.4121262692951</v>
+        <v>36.41872965892428</v>
       </c>
       <c r="M17" t="n">
         <v>50.2965790683497</v>
       </c>
       <c r="N17" t="n">
+        <v>54.13969842864662</v>
+      </c>
+      <c r="O17" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="O17" t="n">
-        <v>281.5494635305328</v>
       </c>
       <c r="P17" t="n">
         <v>515.5131584761417</v>
@@ -35907,7 +35907,7 @@
         <v>309.7261393817856</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>171.8409410604663</v>
       </c>
       <c r="K18" t="n">
-        <v>8.822238409069726</v>
+        <v>421.3880081486924</v>
       </c>
       <c r="L18" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>62.04359384548191</v>
       </c>
       <c r="N18" t="n">
         <v>73.14592456742554</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5609453427006</v>
+        <v>100.8256279480276</v>
       </c>
       <c r="P18" t="n">
         <v>526.1042996047988</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.16393474135155</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>242.7932954326088</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>507.5103162475733</v>
+        <v>1.843472636556356</v>
       </c>
       <c r="L20" t="n">
         <v>591.4121262692951</v>
@@ -36132,13 +36132,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N20" t="n">
-        <v>54.13969842864662</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O20" t="n">
         <v>42.36710744866335</v>
       </c>
       <c r="P20" t="n">
-        <v>278.1753728672425</v>
+        <v>489.3630840702202</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>171.8409410604663</v>
       </c>
       <c r="K21" t="n">
         <v>421.3880081486924</v>
       </c>
       <c r="L21" t="n">
-        <v>42.27637792015933</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M21" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O21" t="n">
         <v>52.32547633951482</v>
       </c>
       <c r="P21" t="n">
-        <v>526.1042996047988</v>
+        <v>45.23591878949864</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.53924591082967</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.16393474135155</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.822238409069726</v>
+        <v>421.3880081486924</v>
       </c>
       <c r="L24" t="n">
         <v>620.7873165935556</v>
       </c>
       <c r="M24" t="n">
-        <v>743.3002200505784</v>
+        <v>267.173430931552</v>
       </c>
       <c r="N24" t="n">
-        <v>820.9200285433691</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O24" t="n">
         <v>52.32547633951482</v>
       </c>
       <c r="P24" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>242.7932954326088</v>
       </c>
       <c r="K26" t="n">
         <v>507.5103162475733</v>
       </c>
       <c r="L26" t="n">
-        <v>574.6691540453979</v>
+        <v>26.51542031933676</v>
       </c>
       <c r="M26" t="n">
-        <v>550.9621639669413</v>
+        <v>50.2965790683497</v>
       </c>
       <c r="N26" t="n">
         <v>54.13969842864662</v>
@@ -36612,10 +36612,10 @@
         <v>574.6691540453979</v>
       </c>
       <c r="P26" t="n">
-        <v>13.5071737286288</v>
+        <v>515.5131584761417</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>304.0200384445308</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>8.822238409069726</v>
       </c>
       <c r="L27" t="n">
-        <v>198.7923751137796</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="M27" t="n">
         <v>574.6691540453979</v>
       </c>
       <c r="N27" t="n">
-        <v>574.6691540453979</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6691540453979</v>
+        <v>518.0468897904947</v>
       </c>
       <c r="P27" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q27" t="n">
-        <v>314.5332042770457</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>34.21334988007498</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>507.5103162475733</v>
       </c>
       <c r="L29" t="n">
-        <v>26.51542031933676</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="M29" t="n">
-        <v>574.6691540453979</v>
+        <v>50.2965790683497</v>
       </c>
       <c r="N29" t="n">
         <v>574.6691540453979</v>
       </c>
       <c r="O29" t="n">
-        <v>42.36710744866335</v>
+        <v>554.8052833272383</v>
       </c>
       <c r="P29" t="n">
-        <v>515.5131584761417</v>
+        <v>13.5071737286288</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>171.8409410604663</v>
       </c>
       <c r="K30" t="n">
-        <v>8.822238409069726</v>
+        <v>421.3880081486924</v>
       </c>
       <c r="L30" t="n">
         <v>574.6691540453979</v>
@@ -36922,19 +36922,19 @@
         <v>62.04359384548191</v>
       </c>
       <c r="N30" t="n">
-        <v>574.6691540453979</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6691540453979</v>
+        <v>117.5686001719248</v>
       </c>
       <c r="P30" t="n">
-        <v>166.0511617947938</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q30" t="n">
         <v>314.5332042770457</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.16393474135155</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>242.7932954326088</v>
       </c>
       <c r="K32" t="n">
-        <v>507.5103162475733</v>
+        <v>1.843472636556356</v>
       </c>
       <c r="L32" t="n">
+        <v>26.51542031933676</v>
+      </c>
+      <c r="M32" t="n">
         <v>574.6691540453979</v>
       </c>
-      <c r="M32" t="n">
-        <v>50.2965790683497</v>
-      </c>
       <c r="N32" t="n">
-        <v>534.5878951095779</v>
+        <v>54.13969842864662</v>
       </c>
       <c r="O32" t="n">
-        <v>42.36710744866335</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="P32" t="n">
-        <v>13.5071737286288</v>
+        <v>457.1583035042244</v>
       </c>
       <c r="Q32" t="n">
         <v>309.7261393817856</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>8.822238409069726</v>
       </c>
       <c r="L33" t="n">
-        <v>42.27637792015933</v>
+        <v>544.2983046528989</v>
       </c>
       <c r="M33" t="n">
+        <v>62.04359384548191</v>
+      </c>
+      <c r="N33" t="n">
+        <v>73.14592456742554</v>
+      </c>
+      <c r="O33" t="n">
         <v>574.6691540453979</v>
-      </c>
-      <c r="N33" t="n">
-        <v>574.6691540453979</v>
-      </c>
-      <c r="O33" t="n">
-        <v>377.0754953772947</v>
       </c>
       <c r="P33" t="n">
         <v>526.1042996047988</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168.5867533313652</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.843472636556356</v>
+        <v>507.5103162475733</v>
       </c>
       <c r="L35" t="n">
+        <v>26.51542031933676</v>
+      </c>
+      <c r="M35" t="n">
+        <v>50.2965790683497</v>
+      </c>
+      <c r="N35" t="n">
         <v>574.6691540453979</v>
       </c>
-      <c r="M35" t="n">
-        <v>574.6691540453979</v>
-      </c>
-      <c r="N35" t="n">
-        <v>54.13969842864662</v>
-      </c>
       <c r="O35" t="n">
-        <v>42.36710744866335</v>
+        <v>567.0100096371556</v>
       </c>
       <c r="P35" t="n">
         <v>515.5131584761417</v>
       </c>
       <c r="Q35" t="n">
-        <v>309.7261393817856</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>33.94302266863119</v>
@@ -37387,25 +37387,25 @@
         <v>171.8409410604663</v>
       </c>
       <c r="K36" t="n">
-        <v>8.822238409069726</v>
+        <v>421.3880081486924</v>
       </c>
       <c r="L36" t="n">
         <v>574.6691540453979</v>
       </c>
       <c r="M36" t="n">
-        <v>62.04359384548191</v>
+        <v>141.4506524192435</v>
       </c>
       <c r="N36" t="n">
-        <v>574.6691540453979</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O36" t="n">
-        <v>574.6691540453979</v>
+        <v>52.32547633951482</v>
       </c>
       <c r="P36" t="n">
-        <v>308.7434250113731</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>314.5332042770457</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>242.7932954326088</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.843472636556356</v>
+        <v>507.5103162475733</v>
       </c>
       <c r="L38" t="n">
+        <v>229.6595921460599</v>
+      </c>
+      <c r="M38" t="n">
+        <v>50.2965790683497</v>
+      </c>
+      <c r="N38" t="n">
+        <v>54.13969842864662</v>
+      </c>
+      <c r="O38" t="n">
         <v>574.6691540453979</v>
-      </c>
-      <c r="M38" t="n">
-        <v>574.6691540453979</v>
-      </c>
-      <c r="N38" t="n">
-        <v>323.6023183778199</v>
-      </c>
-      <c r="O38" t="n">
-        <v>42.36710744866335</v>
       </c>
       <c r="P38" t="n">
         <v>515.5131584761417</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>309.7261393817856</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>421.3880081486924</v>
       </c>
       <c r="L39" t="n">
-        <v>42.27637792015933</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="M39" t="n">
-        <v>574.6691540453979</v>
+        <v>105.4811200508722</v>
       </c>
       <c r="N39" t="n">
-        <v>574.6691540453979</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O39" t="n">
         <v>574.6691540453979</v>
       </c>
       <c r="P39" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.48343173104217</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>242.7932954326088</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>483.2807444410801</v>
+        <v>453.7034228607824</v>
       </c>
       <c r="L41" t="n">
-        <v>26.51542031933676</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="M41" t="n">
         <v>50.2965790683497</v>
@@ -37800,10 +37800,10 @@
         <v>13.5071737286288</v>
       </c>
       <c r="Q41" t="n">
-        <v>309.7261393817856</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>171.8409410604663</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>421.3880081486924</v>
+        <v>8.822238409069726</v>
       </c>
       <c r="L42" t="n">
-        <v>574.6691540453979</v>
+        <v>518.0468897904957</v>
       </c>
       <c r="M42" t="n">
         <v>574.6691540453979</v>
       </c>
       <c r="N42" t="n">
-        <v>136.7293420195729</v>
+        <v>73.14592456742554</v>
       </c>
       <c r="O42" t="n">
-        <v>52.32547633951482</v>
+        <v>574.6691540453979</v>
       </c>
       <c r="P42" t="n">
-        <v>29.30238052649693</v>
+        <v>526.1042996047988</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.5332042770457</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>242.7932954326088</v>
       </c>
       <c r="K44" t="n">
         <v>1.843472636556356</v>
@@ -38025,22 +38025,22 @@
         <v>574.6691540453979</v>
       </c>
       <c r="M44" t="n">
-        <v>536.099551961207</v>
+        <v>500.4626119441543</v>
       </c>
       <c r="N44" t="n">
-        <v>574.6691540453979</v>
+        <v>54.13969842864662</v>
       </c>
       <c r="O44" t="n">
-        <v>574.6691540453979</v>
+        <v>42.36710744866335</v>
       </c>
       <c r="P44" t="n">
-        <v>13.5071737286288</v>
+        <v>515.5131584761417</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>309.7261393817856</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>33.94302266863119</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>574.6691540453979</v>
       </c>
       <c r="M45" t="n">
-        <v>127.2867176778921</v>
+        <v>62.04359384548191</v>
       </c>
       <c r="N45" t="n">
         <v>73.14592456742554</v>
       </c>
       <c r="O45" t="n">
-        <v>52.32547633951482</v>
+        <v>117.5686001719258</v>
       </c>
       <c r="P45" t="n">
         <v>526.1042996047988</v>
